--- a/Results/xlsx/Result_PL5.xlsx
+++ b/Results/xlsx/Result_PL5.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-02-26 14:46</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-02-26 14:45</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-02-26 14:43</t>
+          <t>2021-03-02 19:12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-02-26 14:46</t>
+          <t>2021-03-02 19:17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:11</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:12</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-02-26 10:13</t>
+          <t>2021-03-02 19:18</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021-02-26 14:34</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-02-26 14:32</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2021-02-26 14:46</t>
+          <t>2021-03-02 19:17</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2021-02-26 14:46</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:31</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2021-02-26 14:48</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:26</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:11</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2113,7 +2113,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2021-02-26 14:32</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2021-02-26 14:32</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2021-02-26 14:31</t>
+          <t>2021-03-02 19:30</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:30</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2545,7 +2545,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2599,7 +2599,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:10</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2788,7 +2788,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2021-02-26 14:43</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2021-02-26 14:31</t>
+          <t>2021-03-02 19:30</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2021-02-26 14:32</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -2977,7 +2977,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3085,7 +3085,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2021-02-26 14:31</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3247,7 +3247,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -3328,7 +3328,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:15</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -3382,7 +3382,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2021-02-26 14:49</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3436,7 +3436,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2021-02-26 14:53</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:29</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2021-02-26 14:25</t>
+          <t>2021-03-02 19:17</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3571,7 +3571,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3598,7 +3598,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3652,7 +3652,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:12</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -3733,7 +3733,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3841,7 +3841,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2021-02-26 14:51</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:10</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -4003,7 +4003,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:02</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -4192,7 +4192,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2021-02-26 14:53</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -4273,7 +4273,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4327,7 +4327,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>2021-02-26 14:26</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:22</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4435,7 +4435,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2021-02-26 14:32</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -4651,7 +4651,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>2021-02-26 14:40</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:11</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>2021-02-26 14:43</t>
+          <t>2021-03-02 19:12</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:11</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -4867,7 +4867,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -4894,7 +4894,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -4948,7 +4948,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5029,7 +5029,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>2021-02-26 14:42</t>
+          <t>2021-03-02 19:27</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -5083,7 +5083,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>2021-02-26 14:41</t>
+          <t>2021-03-02 19:40</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5164,7 +5164,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:27</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>2021-02-26 14:46</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -5299,7 +5299,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>2021-02-26 14:31</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -5326,7 +5326,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -5380,7 +5380,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>2021-02-26 14:28</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>2021-02-26 14:29</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>2021-02-26 14:44</t>
+          <t>2021-03-02 19:38</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -5488,7 +5488,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>2021-02-26 14:30</t>
+          <t>2021-03-02 19:31</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:39</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
